--- a/ITUNGAN.xlsx
+++ b/ITUNGAN.xlsx
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,9 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +482,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q3:Q14" si="6">POWER((H4-K4),2)</f>
+        <f t="shared" ref="Q4:Q14" si="6">POWER((H4-K4),2)</f>
         <v>0.15835625050190327</v>
       </c>
       <c r="R4">
@@ -1187,35 +1187,35 @@
         <v>26</v>
       </c>
       <c r="M15">
-        <f>SQRT(SUM(M2:M14))</f>
+        <f t="shared" ref="M15:S15" si="7">SQRT(SUM(M2:M14))</f>
         <v>0.98164546475150871</v>
       </c>
       <c r="N15">
-        <f>SQRT(SUM(N2:N14))</f>
+        <f t="shared" si="7"/>
         <v>1.2050671705049065</v>
       </c>
       <c r="O15">
-        <f>SQRT(SUM(O2:O14))</f>
+        <f t="shared" si="7"/>
         <v>1.0655864040165373</v>
       </c>
       <c r="P15">
-        <f>SQRT(SUM(P2:P14))</f>
+        <f t="shared" si="7"/>
         <v>1.5069667444405632</v>
       </c>
       <c r="Q15">
-        <f>SQRT(SUM(Q2:Q14))</f>
+        <f t="shared" si="7"/>
         <v>1.7081756602624887</v>
       </c>
       <c r="R15">
-        <f>SQRT(SUM(R2:R14))</f>
+        <f t="shared" si="7"/>
         <v>1.8456497916112593</v>
       </c>
       <c r="S15">
-        <f>SQRT(SUM(S2:S14))</f>
+        <f t="shared" si="7"/>
         <v>1.7577572791119025</v>
       </c>
     </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1.5069667444405632</v>
       </c>
     </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1.7081756602624887</v>
       </c>
     </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>30</v>
       </c>
@@ -1255,8 +1255,12 @@
       <c r="N20">
         <v>1.8456497916112593</v>
       </c>
-    </row>
-    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f>0.1249+0.301+0.602</f>
+        <v>1.0279</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>1.7577572791119025</v>
       </c>
     </row>
-    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>32</v>
       </c>
